--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -316,35 +316,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AchievementRateNoticeMailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PostNoticeMailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AchievementRegisterReminderMailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MemberReportMailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GroupReportMailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FeedbackTargetReportMailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ServiceNotificationMailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SendMailCommand</t>
+    <t>EmailSendingCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AchievementRateNoticeEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PostNoticeEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AchievementRegisterReminderEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MemberReportEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GroupReportEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FeedbackTargetReportEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ServiceNotificationEmailCommand</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1746,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="18"/>
@@ -1777,7 +1777,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="18"/>
@@ -1810,7 +1810,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="18"/>
@@ -1843,7 +1843,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="18"/>
@@ -1876,7 +1876,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="20"/>
@@ -1909,7 +1909,7 @@
         <v>44</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="18"/>
@@ -1940,7 +1940,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="18"/>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="18"/>

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -332,19 +332,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>GroupReportEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FeedbackTargetReportEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ServiceNotificationEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>MemberReportEmailCommand</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GroupReportEmailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FeedbackTargetReportEmailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ServiceNotificationEmailCommand</t>
+    <t>0, 3, 9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1843,9 +1847,11 @@
         <v>44</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1876,7 +1882,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="20"/>
@@ -1909,7 +1915,7 @@
         <v>44</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="18"/>
@@ -1940,7 +1946,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="18"/>
@@ -1970,12 +1976,14 @@
         <v>42</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1917,7 +1917,9 @@
       <c r="I11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AchievementRegisterReminderEmailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GroupReportEmailCommand</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -349,6 +345,10 @@
   </si>
   <si>
     <t>0, 3, 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AchievementRegistrationReminderEmailCommand</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1615,7 +1615,7 @@
     <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
     <col min="7" max="8" width="18.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="17"/>
   </cols>
   <sheetData>
@@ -1814,9 +1814,11 @@
         <v>44</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1847,7 +1849,7 @@
         <v>44</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>8</v>
@@ -1882,7 +1884,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="20"/>
@@ -1915,7 +1917,7 @@
         <v>44</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>8</v>
@@ -1948,7 +1950,7 @@
         <v>44</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="18"/>
@@ -1978,7 +1980,7 @@
         <v>42</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>47</v>

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1886,7 +1886,9 @@
       <c r="I10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -221,9 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BB0102</t>
-  </si>
-  <si>
     <t>BB0103</t>
   </si>
   <si>
@@ -349,6 +346,10 @@
   </si>
   <si>
     <t>AchievementRegistrationReminderEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AG0202</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1668,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>10</v>
@@ -1701,22 +1702,22 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>8</v>
@@ -1743,14 +1744,14 @@
         <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="18"/>
@@ -1771,19 +1772,21 @@
         <v>23</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1802,19 +1805,19 @@
         <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>8</v>
@@ -1837,19 +1840,19 @@
         <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>8</v>
@@ -1872,19 +1875,19 @@
         <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>8</v>
@@ -1907,19 +1910,19 @@
         <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>8</v>
@@ -1942,17 +1945,17 @@
         <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="18"/>
@@ -1970,22 +1973,22 @@
         <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>8</v>

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -350,6 +350,35 @@
   </si>
   <si>
     <t>AG0202</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ一括追加登録</t>
+    <rPh sb="3" eb="5">
+      <t>イッカt</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイk</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC0101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AdditionalUsersBulkRegistrationCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -416,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6FFCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +587,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -601,6 +636,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,7 +1730,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A13" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5">
@@ -1996,8 +2034,37 @@
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" ref="B14" si="3">IF(C14=C13,B13,B13+1)</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -378,7 +378,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0, 9</t>
+    <t>0, 3, 9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2063,7 +2063,9 @@
       <c r="I14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>0, 3, 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_sending</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2055,7 +2059,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H14" s="21" t="s">
         <v>60</v>

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="27580" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -449,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +597,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -644,6 +650,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1799,34 +1815,34 @@
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="26" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="18"/>

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -162,16 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目標進捗率通知メール</t>
-    <rPh sb="0" eb="5">
-      <t>モクヒョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツウt</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイムライン投稿通知メール</t>
     <rPh sb="6" eb="8">
       <t>トウコ</t>
@@ -182,13 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進捗登録リマインダーメール</t>
-    <rPh sb="0" eb="4">
-      <t>シンチョk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メンバー進捗状況レポートメール</t>
     <rPh sb="4" eb="8">
       <t>シンチョk</t>
@@ -317,10 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AchievementRateNoticeEmailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PostNoticeEmailCommand</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,6 +362,30 @@
   </si>
   <si>
     <t>mail_sending</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗登録リマインドメール</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標期限日リマインドメール</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeadlineReminderEmailCommand</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -597,7 +600,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -661,6 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1727,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>10</v>
@@ -1760,22 +1764,22 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>8</v>
@@ -1784,35 +1788,37 @@
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="27">
         <f t="shared" ref="B6:B9" si="1">IF(C6=C5,B5,B5+1)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
+      <c r="D6" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
@@ -1827,24 +1833,22 @@
         <v>19</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>8</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J7" s="26"/>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1860,22 +1864,22 @@
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>8</v>
@@ -1895,22 +1899,22 @@
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>8</v>
@@ -1930,22 +1934,22 @@
         <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="I10" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>8</v>
@@ -1965,22 +1969,22 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="I11" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>8</v>
@@ -2000,20 +2004,20 @@
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="18"/>
@@ -2031,22 +2035,22 @@
         <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>8</v>
@@ -2063,25 +2067,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="I14" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>8</v>

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -365,27 +365,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進捗登録リマインドメール</t>
+    <t>OkrDeadlineReminderEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標期限日リマインダーメール</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キゲn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗登録リマインダーメール</t>
     <rPh sb="0" eb="4">
       <t>シンチョk</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標期限日リマインドメール</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キゲn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DeadlineReminderEmailCommand</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -665,6 +665,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1004,12 +1007,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="13" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1671,15 +1674,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="18.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="17"/>
+    <col min="4" max="4" width="41.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="8" width="18.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38" x14ac:dyDescent="0.55000000000000004">
@@ -1814,11 +1817,14 @@
       <c r="H6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="16"/>
+      <c r="I6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
@@ -1850,8 +1856,9 @@
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="40" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1864,7 +1871,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>28</v>
@@ -1956,7 +1963,7 @@
       </c>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="40" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>

--- a/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
+++ b/skrum_docs/02_SpecificationDocs/BATCHList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -162,16 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイムライン投稿通知メール</t>
-    <rPh sb="6" eb="8">
-      <t>トウコ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツウt</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メンバー進捗状況レポートメール</t>
     <rPh sb="4" eb="8">
       <t>シンチョk</t>
@@ -300,10 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PostNoticeEmailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GroupReportEmailCommand</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,10 +311,6 @@
   </si>
   <si>
     <t>AchievementRegistrationReminderEmailCommand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AG0202</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -385,6 +367,39 @@
     <t>進捗登録リマインダーメール</t>
     <rPh sb="0" eb="4">
       <t>シンチョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKR一括登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC0102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎分</t>
+    <rPh sb="0" eb="2">
+      <t>マイフn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BB0102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HearingDueDateReminderEmailCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒアリング回答期限日リマインダーメール</t>
+    <rPh sb="5" eb="9">
+      <t>カイト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>h</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -452,7 +467,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,12 +501,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +609,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -654,20 +663,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1007,12 +1008,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1674,15 +1675,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="18.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="17"/>
+    <col min="4" max="4" width="41.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="18.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38" x14ac:dyDescent="0.55000000000000004">
@@ -1734,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>10</v>
@@ -1757,7 +1758,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A14" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="5">
@@ -1767,22 +1768,22 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>8</v>
@@ -1791,102 +1792,106 @@
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="23">
         <f t="shared" ref="B6:B9" si="1">IF(C6=C5,B5,B5+1)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>27</v>
+      <c r="D6" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+    <row r="7" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>22</v>
+      <c r="D7" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>62</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" ht="40" x14ac:dyDescent="0.3">
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <f t="shared" si="1"/>
+        <f>IF(C8=C7,B7,B7+1)</f>
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>8</v>
@@ -1906,22 +1911,22 @@
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>8</v>
@@ -1941,29 +1946,29 @@
         <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:12" ht="40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1976,22 +1981,22 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>8</v>
@@ -2011,22 +2016,24 @@
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2042,22 +2049,22 @@
         <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>8</v>
@@ -2074,25 +2081,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="I14" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>8</v>
@@ -2100,8 +2107,37 @@
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" ref="B15" si="4">IF(C15=C14,B14,B14+1)</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
